--- a/medicine/Psychotrope/Imperial_(bière)/Imperial_(bière).xlsx
+++ b/medicine/Psychotrope/Imperial_(bière)/Imperial_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Imperial_(bi%C3%A8re)</t>
+          <t>Imperial_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Imperial est une bière du Costa Rica, élaborée par la Brasserie Costa Rica[1]. Elle est conçue à partir de malt, houblon, eau et levure. C'est une bière d'alcool modéré (4,5°).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Imperial est une bière du Costa Rica, élaborée par la Brasserie Costa Rica. Elle est conçue à partir de malt, houblon, eau et levure. C'est une bière d'alcool modéré (4,5°).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Imperial_(bi%C3%A8re)</t>
+          <t>Imperial_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire de cette bière se remonte à l'an 1924, la brasserie Ortega décida alors de lancer une bière qui combina la tradition de la bière allemande adaptée au goût des costarriciens. Son succès fut immédiat, elle demeure aujourd'hui une  bière dominante sur le marché du Costa Rica, connue aussi comme la bière de l'aigle en raison de son blason caractéristique.
 En 2004 la marque fut exportée aux États-Unis, pays où elle est distribuée à plus de 20 états, entre lesquels se trouvent la Californie, le Texas, la Floride et New York. Elle se vend aussi en Chine, en Australie ainsi qu'en Amerique centrale.
